--- a/Filtrování dat_Soubor_Edit.xlsx
+++ b/Filtrování dat_Soubor_Edit.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://prgconscz-my.sharepoint.com/personal/konrja_prgcons_cz/Documents/Informatika_hotové úkoly/Excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b7bea6168f5981fa/Dokumenty/Bio_Jan_Konrád/Informatika - Materiály^J výuka (učitel)/server/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{32789B74-0D72-4400-9983-9978BE34BBD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="79" documentId="8_{32789B74-0D72-4400-9983-9978BE34BBD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FD3E642C-2F96-4437-AAEC-4DB8BEDFC14D}"/>
   <bookViews>
-    <workbookView xWindow="25590" yWindow="0" windowWidth="26010" windowHeight="21600" xr2:uid="{A6C0CDC1-438D-4FBE-A01E-CF63DD163675}"/>
+    <workbookView xWindow="3120" yWindow="0" windowWidth="26010" windowHeight="21600" xr2:uid="{A6C0CDC1-438D-4FBE-A01E-CF63DD163675}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -2330,9 +2330,6 @@
     <t>Třída</t>
   </si>
   <si>
-    <t>S vyznamenáním/Prospěl/ Neporspěl</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
@@ -2358,6 +2355,9 @@
   </si>
   <si>
     <t>Neprospěl</t>
+  </si>
+  <si>
+    <t>S vyznamenáním/Prospěl/ Neprospěl</t>
   </si>
 </sst>
 </file>
@@ -2740,7 +2740,7 @@
   <dimension ref="A1:H631"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2775,7 +2775,7 @@
         <v>762</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>763</v>
+        <v>772</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -2798,10 +2798,10 @@
         <v>2</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -2824,10 +2824,10 @@
         <v>4</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -2850,10 +2850,10 @@
         <v>1</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -2876,10 +2876,10 @@
         <v>3</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -2902,10 +2902,10 @@
         <v>6</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -2928,10 +2928,10 @@
         <v>5</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -2954,10 +2954,10 @@
         <v>2</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -2980,10 +2980,10 @@
         <v>4</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>763</v>
+        <v>770</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -3006,10 +3006,10 @@
         <v>1</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -3032,10 +3032,10 @@
         <v>3</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -3058,10 +3058,10 @@
         <v>6</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -3084,10 +3084,10 @@
         <v>5</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -3110,10 +3110,10 @@
         <v>2</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -3136,10 +3136,10 @@
         <v>4</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -3162,10 +3162,10 @@
         <v>1</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -3188,10 +3188,10 @@
         <v>3</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>763</v>
+        <v>770</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -3214,10 +3214,10 @@
         <v>6</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -3240,10 +3240,10 @@
         <v>5</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -3266,10 +3266,10 @@
         <v>2</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -3292,10 +3292,10 @@
         <v>4</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -3318,10 +3318,10 @@
         <v>1</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -3344,10 +3344,10 @@
         <v>3</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -3370,10 +3370,10 @@
         <v>6</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -3396,10 +3396,10 @@
         <v>5</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>763</v>
+        <v>770</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -3422,10 +3422,10 @@
         <v>2</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -3448,10 +3448,10 @@
         <v>4</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -3474,10 +3474,10 @@
         <v>1</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -3500,10 +3500,10 @@
         <v>3</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -3526,10 +3526,10 @@
         <v>6</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -3552,10 +3552,10 @@
         <v>5</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -3578,10 +3578,10 @@
         <v>2</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -3604,10 +3604,10 @@
         <v>4</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>763</v>
+        <v>770</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -3630,10 +3630,10 @@
         <v>1</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -3656,10 +3656,10 @@
         <v>3</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -3682,10 +3682,10 @@
         <v>6</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -3708,10 +3708,10 @@
         <v>5</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -3734,10 +3734,10 @@
         <v>2</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -3760,10 +3760,10 @@
         <v>4</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -3786,10 +3786,10 @@
         <v>1</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -3812,10 +3812,10 @@
         <v>3</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>763</v>
+        <v>770</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -3838,10 +3838,10 @@
         <v>6</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -3864,10 +3864,10 @@
         <v>5</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -3890,10 +3890,10 @@
         <v>2</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -3916,10 +3916,10 @@
         <v>4</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -3942,10 +3942,10 @@
         <v>1</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -3968,10 +3968,10 @@
         <v>3</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -3994,10 +3994,10 @@
         <v>6</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -4020,10 +4020,10 @@
         <v>5</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>763</v>
+        <v>770</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -4046,10 +4046,10 @@
         <v>2</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -4072,10 +4072,10 @@
         <v>4</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -4098,10 +4098,10 @@
         <v>1</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -4124,10 +4124,10 @@
         <v>3</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -4150,10 +4150,10 @@
         <v>6</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -4176,10 +4176,10 @@
         <v>5</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -4202,10 +4202,10 @@
         <v>2</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -4228,10 +4228,10 @@
         <v>4</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>763</v>
+        <v>770</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -4254,10 +4254,10 @@
         <v>1</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -4280,10 +4280,10 @@
         <v>3</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -4306,10 +4306,10 @@
         <v>6</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -4332,10 +4332,10 @@
         <v>5</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
@@ -4358,10 +4358,10 @@
         <v>2</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
@@ -4384,10 +4384,10 @@
         <v>4</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
@@ -4410,10 +4410,10 @@
         <v>1</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
@@ -4436,10 +4436,10 @@
         <v>3</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>763</v>
+        <v>770</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -4462,10 +4462,10 @@
         <v>6</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -4488,10 +4488,10 @@
         <v>5</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
@@ -4514,10 +4514,10 @@
         <v>2</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
@@ -4540,10 +4540,10 @@
         <v>4</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
@@ -4566,10 +4566,10 @@
         <v>1</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
@@ -4592,10 +4592,10 @@
         <v>3</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
@@ -4618,10 +4618,10 @@
         <v>6</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
@@ -4644,10 +4644,10 @@
         <v>5</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>763</v>
+        <v>770</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
@@ -4670,10 +4670,10 @@
         <v>2</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
@@ -4696,10 +4696,10 @@
         <v>4</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
@@ -4722,10 +4722,10 @@
         <v>1</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
@@ -4748,10 +4748,10 @@
         <v>3</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
@@ -4774,10 +4774,10 @@
         <v>6</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
@@ -4800,10 +4800,10 @@
         <v>5</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
@@ -4826,10 +4826,10 @@
         <v>2</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
@@ -4852,10 +4852,10 @@
         <v>4</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>763</v>
+        <v>770</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
@@ -4878,10 +4878,10 @@
         <v>1</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
@@ -4904,10 +4904,10 @@
         <v>3</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
@@ -4930,10 +4930,10 @@
         <v>6</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
@@ -4956,10 +4956,10 @@
         <v>5</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
@@ -4982,10 +4982,10 @@
         <v>2</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
@@ -5008,10 +5008,10 @@
         <v>4</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
@@ -5034,10 +5034,10 @@
         <v>1</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
@@ -5060,10 +5060,10 @@
         <v>3</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>763</v>
+        <v>770</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
@@ -5086,10 +5086,10 @@
         <v>6</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
@@ -5112,10 +5112,10 @@
         <v>5</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
@@ -5138,10 +5138,10 @@
         <v>2</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
@@ -5164,10 +5164,10 @@
         <v>4</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
@@ -5190,10 +5190,10 @@
         <v>1</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
@@ -5216,10 +5216,10 @@
         <v>3</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
@@ -5242,10 +5242,10 @@
         <v>6</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
@@ -5268,10 +5268,10 @@
         <v>5</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>763</v>
+        <v>770</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
@@ -5294,10 +5294,10 @@
         <v>2</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
@@ -5320,10 +5320,10 @@
         <v>4</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
@@ -5346,10 +5346,10 @@
         <v>1</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
@@ -5372,10 +5372,10 @@
         <v>3</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
@@ -5398,10 +5398,10 @@
         <v>6</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
@@ -5424,10 +5424,10 @@
         <v>5</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
@@ -5450,10 +5450,10 @@
         <v>2</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
@@ -5476,10 +5476,10 @@
         <v>4</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>763</v>
+        <v>770</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
@@ -5502,10 +5502,10 @@
         <v>1</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
@@ -5528,10 +5528,10 @@
         <v>3</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
@@ -5554,10 +5554,10 @@
         <v>6</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
@@ -5580,10 +5580,10 @@
         <v>5</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
@@ -5606,10 +5606,10 @@
         <v>2</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
@@ -5632,10 +5632,10 @@
         <v>4</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
@@ -5658,10 +5658,10 @@
         <v>1</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
@@ -5684,10 +5684,10 @@
         <v>3</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>763</v>
+        <v>770</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
@@ -5710,10 +5710,10 @@
         <v>6</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
@@ -5736,10 +5736,10 @@
         <v>5</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
@@ -5762,10 +5762,10 @@
         <v>2</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
@@ -5788,10 +5788,10 @@
         <v>4</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
@@ -5814,10 +5814,10 @@
         <v>1</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
@@ -5840,10 +5840,10 @@
         <v>3</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
@@ -5866,10 +5866,10 @@
         <v>6</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
@@ -5892,10 +5892,10 @@
         <v>5</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>763</v>
+        <v>770</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
@@ -5918,10 +5918,10 @@
         <v>2</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
@@ -5944,10 +5944,10 @@
         <v>4</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
@@ -5970,10 +5970,10 @@
         <v>1</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
@@ -5996,10 +5996,10 @@
         <v>3</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
@@ -6022,10 +6022,10 @@
         <v>6</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
@@ -6048,10 +6048,10 @@
         <v>5</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
@@ -6074,10 +6074,10 @@
         <v>2</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H128" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
@@ -6100,10 +6100,10 @@
         <v>4</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>763</v>
+        <v>770</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
@@ -6126,10 +6126,10 @@
         <v>1</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
@@ -6152,10 +6152,10 @@
         <v>3</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
@@ -6178,10 +6178,10 @@
         <v>6</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
@@ -6204,10 +6204,10 @@
         <v>5</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
@@ -6230,10 +6230,10 @@
         <v>2</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
@@ -6256,10 +6256,10 @@
         <v>4</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
@@ -6282,10 +6282,10 @@
         <v>1</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
@@ -6308,10 +6308,10 @@
         <v>3</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>763</v>
+        <v>770</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
@@ -6334,10 +6334,10 @@
         <v>6</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
@@ -6360,10 +6360,10 @@
         <v>5</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
@@ -6386,10 +6386,10 @@
         <v>2</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H140" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
@@ -6412,10 +6412,10 @@
         <v>4</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
@@ -6438,10 +6438,10 @@
         <v>1</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H142" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
@@ -6464,10 +6464,10 @@
         <v>3</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
@@ -6490,10 +6490,10 @@
         <v>6</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H144" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
@@ -6516,10 +6516,10 @@
         <v>5</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>763</v>
+        <v>770</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
@@ -6542,10 +6542,10 @@
         <v>2</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H146" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
@@ -6568,10 +6568,10 @@
         <v>4</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H147" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
@@ -6594,10 +6594,10 @@
         <v>1</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H148" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
@@ -6620,10 +6620,10 @@
         <v>3</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H149" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
@@ -6646,10 +6646,10 @@
         <v>6</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H150" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
@@ -6672,10 +6672,10 @@
         <v>5</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H151" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
@@ -6698,10 +6698,10 @@
         <v>2</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H152" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
@@ -6724,10 +6724,10 @@
         <v>4</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H153" s="1" t="s">
-        <v>763</v>
+        <v>770</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
@@ -6750,10 +6750,10 @@
         <v>1</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H154" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
@@ -6776,10 +6776,10 @@
         <v>3</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H155" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
@@ -6802,10 +6802,10 @@
         <v>6</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H156" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
@@ -6828,10 +6828,10 @@
         <v>5</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H157" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
@@ -6854,10 +6854,10 @@
         <v>2</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H158" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
@@ -6880,10 +6880,10 @@
         <v>4</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H159" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
@@ -6906,10 +6906,10 @@
         <v>1</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H160" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
@@ -6932,10 +6932,10 @@
         <v>3</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H161" s="1" t="s">
-        <v>763</v>
+        <v>770</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
@@ -6958,10 +6958,10 @@
         <v>6</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H162" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
@@ -6984,10 +6984,10 @@
         <v>5</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H163" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
@@ -7010,10 +7010,10 @@
         <v>2</v>
       </c>
       <c r="G164" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H164" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
@@ -7036,10 +7036,10 @@
         <v>4</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H165" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
@@ -7062,10 +7062,10 @@
         <v>1</v>
       </c>
       <c r="G166" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H166" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
@@ -7088,10 +7088,10 @@
         <v>3</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H167" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
@@ -7114,10 +7114,10 @@
         <v>6</v>
       </c>
       <c r="G168" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H168" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
@@ -7140,10 +7140,10 @@
         <v>5</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H169" s="1" t="s">
-        <v>763</v>
+        <v>770</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
@@ -7166,10 +7166,10 @@
         <v>2</v>
       </c>
       <c r="G170" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H170" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
@@ -7192,10 +7192,10 @@
         <v>4</v>
       </c>
       <c r="G171" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H171" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
@@ -7218,10 +7218,10 @@
         <v>1</v>
       </c>
       <c r="G172" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H172" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
@@ -7244,10 +7244,10 @@
         <v>3</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H173" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
@@ -7270,10 +7270,10 @@
         <v>6</v>
       </c>
       <c r="G174" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H174" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
@@ -7296,10 +7296,10 @@
         <v>5</v>
       </c>
       <c r="G175" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H175" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
@@ -7322,10 +7322,10 @@
         <v>2</v>
       </c>
       <c r="G176" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H176" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
@@ -7348,10 +7348,10 @@
         <v>4</v>
       </c>
       <c r="G177" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H177" s="1" t="s">
-        <v>763</v>
+        <v>770</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
@@ -7374,10 +7374,10 @@
         <v>1</v>
       </c>
       <c r="G178" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H178" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
@@ -7400,10 +7400,10 @@
         <v>3</v>
       </c>
       <c r="G179" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H179" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
@@ -7426,10 +7426,10 @@
         <v>6</v>
       </c>
       <c r="G180" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H180" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
@@ -7452,10 +7452,10 @@
         <v>5</v>
       </c>
       <c r="G181" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H181" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
@@ -7478,10 +7478,10 @@
         <v>2</v>
       </c>
       <c r="G182" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H182" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
@@ -7504,10 +7504,10 @@
         <v>4</v>
       </c>
       <c r="G183" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H183" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
@@ -7530,10 +7530,10 @@
         <v>1</v>
       </c>
       <c r="G184" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H184" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
@@ -7556,10 +7556,10 @@
         <v>3</v>
       </c>
       <c r="G185" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H185" s="1" t="s">
-        <v>763</v>
+        <v>770</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
@@ -7582,10 +7582,10 @@
         <v>6</v>
       </c>
       <c r="G186" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H186" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
@@ -7608,10 +7608,10 @@
         <v>5</v>
       </c>
       <c r="G187" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H187" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
@@ -7634,10 +7634,10 @@
         <v>2</v>
       </c>
       <c r="G188" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H188" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
@@ -7660,10 +7660,10 @@
         <v>4</v>
       </c>
       <c r="G189" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H189" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
@@ -7686,10 +7686,10 @@
         <v>1</v>
       </c>
       <c r="G190" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H190" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
@@ -7712,10 +7712,10 @@
         <v>3</v>
       </c>
       <c r="G191" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H191" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.25">
@@ -7738,10 +7738,10 @@
         <v>6</v>
       </c>
       <c r="G192" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H192" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
@@ -7764,10 +7764,10 @@
         <v>5</v>
       </c>
       <c r="G193" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H193" s="1" t="s">
-        <v>763</v>
+        <v>770</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
@@ -7790,10 +7790,10 @@
         <v>2</v>
       </c>
       <c r="G194" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H194" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
@@ -7816,10 +7816,10 @@
         <v>4</v>
       </c>
       <c r="G195" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H195" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.25">
@@ -7842,10 +7842,10 @@
         <v>1</v>
       </c>
       <c r="G196" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H196" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
@@ -7868,10 +7868,10 @@
         <v>3</v>
       </c>
       <c r="G197" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H197" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
@@ -7894,10 +7894,10 @@
         <v>6</v>
       </c>
       <c r="G198" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H198" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
@@ -7920,10 +7920,10 @@
         <v>5</v>
       </c>
       <c r="G199" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H199" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.25">
@@ -7946,10 +7946,10 @@
         <v>2</v>
       </c>
       <c r="G200" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H200" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
@@ -7972,10 +7972,10 @@
         <v>4</v>
       </c>
       <c r="G201" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H201" s="1" t="s">
-        <v>763</v>
+        <v>770</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
@@ -7998,10 +7998,10 @@
         <v>1</v>
       </c>
       <c r="G202" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H202" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
@@ -8024,10 +8024,10 @@
         <v>3</v>
       </c>
       <c r="G203" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H203" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.25">
@@ -8050,10 +8050,10 @@
         <v>6</v>
       </c>
       <c r="G204" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H204" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.25">
@@ -8076,10 +8076,10 @@
         <v>5</v>
       </c>
       <c r="G205" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H205" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.25">
@@ -8102,10 +8102,10 @@
         <v>2</v>
       </c>
       <c r="G206" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H206" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.25">
@@ -8128,10 +8128,10 @@
         <v>4</v>
       </c>
       <c r="G207" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H207" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.25">
@@ -8154,10 +8154,10 @@
         <v>1</v>
       </c>
       <c r="G208" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H208" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
@@ -8180,10 +8180,10 @@
         <v>3</v>
       </c>
       <c r="G209" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H209" s="1" t="s">
-        <v>763</v>
+        <v>770</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.25">
@@ -8206,10 +8206,10 @@
         <v>6</v>
       </c>
       <c r="G210" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H210" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
@@ -8232,10 +8232,10 @@
         <v>5</v>
       </c>
       <c r="G211" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H211" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
@@ -8258,10 +8258,10 @@
         <v>2</v>
       </c>
       <c r="G212" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H212" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
@@ -8284,10 +8284,10 @@
         <v>4</v>
       </c>
       <c r="G213" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H213" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.25">
@@ -8310,10 +8310,10 @@
         <v>1</v>
       </c>
       <c r="G214" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H214" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.25">
@@ -8336,10 +8336,10 @@
         <v>3</v>
       </c>
       <c r="G215" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H215" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
@@ -8362,10 +8362,10 @@
         <v>6</v>
       </c>
       <c r="G216" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H216" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.25">
@@ -8388,10 +8388,10 @@
         <v>5</v>
       </c>
       <c r="G217" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H217" s="1" t="s">
-        <v>763</v>
+        <v>770</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
@@ -8414,10 +8414,10 @@
         <v>2</v>
       </c>
       <c r="G218" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H218" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.25">
@@ -8440,10 +8440,10 @@
         <v>4</v>
       </c>
       <c r="G219" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H219" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
@@ -8466,10 +8466,10 @@
         <v>1</v>
       </c>
       <c r="G220" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H220" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.25">
@@ -8492,10 +8492,10 @@
         <v>3</v>
       </c>
       <c r="G221" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H221" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
@@ -8518,10 +8518,10 @@
         <v>6</v>
       </c>
       <c r="G222" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H222" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
@@ -8544,10 +8544,10 @@
         <v>5</v>
       </c>
       <c r="G223" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H223" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
@@ -8570,10 +8570,10 @@
         <v>2</v>
       </c>
       <c r="G224" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H224" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.25">
@@ -8596,10 +8596,10 @@
         <v>4</v>
       </c>
       <c r="G225" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H225" s="1" t="s">
-        <v>763</v>
+        <v>770</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.25">
@@ -8622,10 +8622,10 @@
         <v>1</v>
       </c>
       <c r="G226" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H226" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.25">
@@ -8648,10 +8648,10 @@
         <v>3</v>
       </c>
       <c r="G227" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H227" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.25">
@@ -8674,10 +8674,10 @@
         <v>6</v>
       </c>
       <c r="G228" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H228" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.25">
@@ -8700,10 +8700,10 @@
         <v>5</v>
       </c>
       <c r="G229" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H229" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.25">
@@ -8726,10 +8726,10 @@
         <v>2</v>
       </c>
       <c r="G230" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H230" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.25">
@@ -8752,10 +8752,10 @@
         <v>4</v>
       </c>
       <c r="G231" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H231" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.25">
@@ -8778,10 +8778,10 @@
         <v>1</v>
       </c>
       <c r="G232" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H232" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.25">
@@ -8804,10 +8804,10 @@
         <v>3</v>
       </c>
       <c r="G233" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H233" s="1" t="s">
-        <v>763</v>
+        <v>770</v>
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.25">
@@ -8830,10 +8830,10 @@
         <v>6</v>
       </c>
       <c r="G234" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H234" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.25">
@@ -8856,10 +8856,10 @@
         <v>5</v>
       </c>
       <c r="G235" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H235" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.25">
@@ -8882,10 +8882,10 @@
         <v>2</v>
       </c>
       <c r="G236" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H236" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.25">
@@ -8908,10 +8908,10 @@
         <v>4</v>
       </c>
       <c r="G237" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H237" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.25">
@@ -8934,10 +8934,10 @@
         <v>1</v>
       </c>
       <c r="G238" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H238" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.25">
@@ -8960,10 +8960,10 @@
         <v>3</v>
       </c>
       <c r="G239" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H239" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.25">
@@ -8986,10 +8986,10 @@
         <v>6</v>
       </c>
       <c r="G240" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H240" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.25">
@@ -9012,10 +9012,10 @@
         <v>5</v>
       </c>
       <c r="G241" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H241" s="1" t="s">
-        <v>763</v>
+        <v>770</v>
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.25">
@@ -9038,10 +9038,10 @@
         <v>2</v>
       </c>
       <c r="G242" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H242" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.25">
@@ -9064,10 +9064,10 @@
         <v>4</v>
       </c>
       <c r="G243" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H243" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.25">
@@ -9090,10 +9090,10 @@
         <v>1</v>
       </c>
       <c r="G244" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H244" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.25">
@@ -9116,10 +9116,10 @@
         <v>3</v>
       </c>
       <c r="G245" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H245" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.25">
@@ -9142,10 +9142,10 @@
         <v>6</v>
       </c>
       <c r="G246" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H246" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.25">
@@ -9168,10 +9168,10 @@
         <v>5</v>
       </c>
       <c r="G247" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H247" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.25">
@@ -9194,10 +9194,10 @@
         <v>2</v>
       </c>
       <c r="G248" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H248" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.25">
@@ -9220,10 +9220,10 @@
         <v>4</v>
       </c>
       <c r="G249" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H249" s="1" t="s">
-        <v>763</v>
+        <v>770</v>
       </c>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.25">
@@ -9246,10 +9246,10 @@
         <v>1</v>
       </c>
       <c r="G250" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H250" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.25">
@@ -9272,10 +9272,10 @@
         <v>3</v>
       </c>
       <c r="G251" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H251" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.25">
@@ -9298,10 +9298,10 @@
         <v>6</v>
       </c>
       <c r="G252" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H252" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.25">
@@ -9324,10 +9324,10 @@
         <v>5</v>
       </c>
       <c r="G253" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H253" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.25">
@@ -9350,10 +9350,10 @@
         <v>2</v>
       </c>
       <c r="G254" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H254" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.25">
@@ -9376,10 +9376,10 @@
         <v>4</v>
       </c>
       <c r="G255" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H255" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.25">
@@ -9402,10 +9402,10 @@
         <v>1</v>
       </c>
       <c r="G256" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H256" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.25">
@@ -9428,10 +9428,10 @@
         <v>3</v>
       </c>
       <c r="G257" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H257" s="1" t="s">
-        <v>763</v>
+        <v>770</v>
       </c>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.25">
@@ -9454,10 +9454,10 @@
         <v>6</v>
       </c>
       <c r="G258" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H258" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.25">
@@ -9480,10 +9480,10 @@
         <v>5</v>
       </c>
       <c r="G259" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H259" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.25">
@@ -9506,10 +9506,10 @@
         <v>2</v>
       </c>
       <c r="G260" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H260" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.25">
@@ -9532,10 +9532,10 @@
         <v>4</v>
       </c>
       <c r="G261" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H261" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.25">
@@ -9558,10 +9558,10 @@
         <v>1</v>
       </c>
       <c r="G262" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H262" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.25">
@@ -9584,10 +9584,10 @@
         <v>3</v>
       </c>
       <c r="G263" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H263" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.25">
@@ -9610,10 +9610,10 @@
         <v>6</v>
       </c>
       <c r="G264" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H264" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.25">
@@ -9636,10 +9636,10 @@
         <v>5</v>
       </c>
       <c r="G265" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H265" s="1" t="s">
-        <v>763</v>
+        <v>770</v>
       </c>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.25">
@@ -9662,10 +9662,10 @@
         <v>2</v>
       </c>
       <c r="G266" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H266" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.25">
@@ -9688,10 +9688,10 @@
         <v>4</v>
       </c>
       <c r="G267" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H267" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.25">
@@ -9714,10 +9714,10 @@
         <v>1</v>
       </c>
       <c r="G268" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H268" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.25">
@@ -9740,10 +9740,10 @@
         <v>3</v>
       </c>
       <c r="G269" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H269" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.25">
@@ -9766,10 +9766,10 @@
         <v>6</v>
       </c>
       <c r="G270" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H270" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.25">
@@ -9792,10 +9792,10 @@
         <v>5</v>
       </c>
       <c r="G271" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H271" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.25">
@@ -9818,10 +9818,10 @@
         <v>2</v>
       </c>
       <c r="G272" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H272" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.25">
@@ -9844,10 +9844,10 @@
         <v>4</v>
       </c>
       <c r="G273" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H273" s="1" t="s">
-        <v>763</v>
+        <v>770</v>
       </c>
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.25">
@@ -9870,10 +9870,10 @@
         <v>1</v>
       </c>
       <c r="G274" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H274" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.25">
@@ -9896,10 +9896,10 @@
         <v>3</v>
       </c>
       <c r="G275" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H275" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.25">
@@ -9922,10 +9922,10 @@
         <v>6</v>
       </c>
       <c r="G276" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H276" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.25">
@@ -9948,10 +9948,10 @@
         <v>5</v>
       </c>
       <c r="G277" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H277" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.25">
@@ -9974,10 +9974,10 @@
         <v>2</v>
       </c>
       <c r="G278" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H278" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.25">
@@ -10000,10 +10000,10 @@
         <v>4</v>
       </c>
       <c r="G279" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H279" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.25">
@@ -10026,10 +10026,10 @@
         <v>1</v>
       </c>
       <c r="G280" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H280" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.25">
@@ -10052,10 +10052,10 @@
         <v>3</v>
       </c>
       <c r="G281" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H281" s="1" t="s">
-        <v>763</v>
+        <v>770</v>
       </c>
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.25">
@@ -10078,10 +10078,10 @@
         <v>6</v>
       </c>
       <c r="G282" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H282" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.25">
@@ -10104,10 +10104,10 @@
         <v>5</v>
       </c>
       <c r="G283" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H283" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.25">
@@ -10130,10 +10130,10 @@
         <v>2</v>
       </c>
       <c r="G284" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H284" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.25">
@@ -10156,10 +10156,10 @@
         <v>4</v>
       </c>
       <c r="G285" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H285" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.25">
@@ -10182,10 +10182,10 @@
         <v>1</v>
       </c>
       <c r="G286" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H286" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="287" spans="1:8" x14ac:dyDescent="0.25">
@@ -10208,10 +10208,10 @@
         <v>3</v>
       </c>
       <c r="G287" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H287" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.25">
@@ -10234,10 +10234,10 @@
         <v>6</v>
       </c>
       <c r="G288" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H288" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.25">
@@ -10260,10 +10260,10 @@
         <v>5</v>
       </c>
       <c r="G289" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H289" s="1" t="s">
-        <v>763</v>
+        <v>770</v>
       </c>
     </row>
     <row r="290" spans="1:8" x14ac:dyDescent="0.25">
@@ -10286,10 +10286,10 @@
         <v>2</v>
       </c>
       <c r="G290" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H290" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="291" spans="1:8" x14ac:dyDescent="0.25">
@@ -10312,10 +10312,10 @@
         <v>4</v>
       </c>
       <c r="G291" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H291" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="292" spans="1:8" x14ac:dyDescent="0.25">
@@ -10338,10 +10338,10 @@
         <v>1</v>
       </c>
       <c r="G292" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H292" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="293" spans="1:8" x14ac:dyDescent="0.25">
@@ -10364,10 +10364,10 @@
         <v>3</v>
       </c>
       <c r="G293" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H293" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="294" spans="1:8" x14ac:dyDescent="0.25">
@@ -10390,10 +10390,10 @@
         <v>6</v>
       </c>
       <c r="G294" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H294" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="295" spans="1:8" x14ac:dyDescent="0.25">
@@ -10416,10 +10416,10 @@
         <v>5</v>
       </c>
       <c r="G295" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H295" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="296" spans="1:8" x14ac:dyDescent="0.25">
@@ -10442,10 +10442,10 @@
         <v>2</v>
       </c>
       <c r="G296" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H296" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="297" spans="1:8" x14ac:dyDescent="0.25">
@@ -10468,10 +10468,10 @@
         <v>4</v>
       </c>
       <c r="G297" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H297" s="1" t="s">
-        <v>763</v>
+        <v>770</v>
       </c>
     </row>
     <row r="298" spans="1:8" x14ac:dyDescent="0.25">
@@ -10494,10 +10494,10 @@
         <v>1</v>
       </c>
       <c r="G298" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H298" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="299" spans="1:8" x14ac:dyDescent="0.25">
@@ -10520,10 +10520,10 @@
         <v>3</v>
       </c>
       <c r="G299" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H299" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="300" spans="1:8" x14ac:dyDescent="0.25">
@@ -10546,10 +10546,10 @@
         <v>6</v>
       </c>
       <c r="G300" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H300" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="301" spans="1:8" x14ac:dyDescent="0.25">
@@ -10572,10 +10572,10 @@
         <v>5</v>
       </c>
       <c r="G301" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H301" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="302" spans="1:8" x14ac:dyDescent="0.25">
@@ -10598,10 +10598,10 @@
         <v>2</v>
       </c>
       <c r="G302" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H302" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="303" spans="1:8" x14ac:dyDescent="0.25">
@@ -10624,10 +10624,10 @@
         <v>4</v>
       </c>
       <c r="G303" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H303" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="304" spans="1:8" x14ac:dyDescent="0.25">
@@ -10650,10 +10650,10 @@
         <v>1</v>
       </c>
       <c r="G304" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H304" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="305" spans="1:8" x14ac:dyDescent="0.25">
@@ -10676,10 +10676,10 @@
         <v>3</v>
       </c>
       <c r="G305" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H305" s="1" t="s">
-        <v>763</v>
+        <v>770</v>
       </c>
     </row>
     <row r="306" spans="1:8" x14ac:dyDescent="0.25">
@@ -10702,10 +10702,10 @@
         <v>6</v>
       </c>
       <c r="G306" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H306" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="307" spans="1:8" x14ac:dyDescent="0.25">
@@ -10728,10 +10728,10 @@
         <v>5</v>
       </c>
       <c r="G307" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H307" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="308" spans="1:8" x14ac:dyDescent="0.25">
@@ -10754,10 +10754,10 @@
         <v>2</v>
       </c>
       <c r="G308" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H308" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="309" spans="1:8" x14ac:dyDescent="0.25">
@@ -10780,10 +10780,10 @@
         <v>4</v>
       </c>
       <c r="G309" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H309" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="310" spans="1:8" x14ac:dyDescent="0.25">
@@ -10806,10 +10806,10 @@
         <v>1</v>
       </c>
       <c r="G310" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H310" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="311" spans="1:8" x14ac:dyDescent="0.25">
@@ -10832,10 +10832,10 @@
         <v>3</v>
       </c>
       <c r="G311" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H311" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="312" spans="1:8" x14ac:dyDescent="0.25">
@@ -10858,10 +10858,10 @@
         <v>6</v>
       </c>
       <c r="G312" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H312" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="313" spans="1:8" x14ac:dyDescent="0.25">
@@ -10884,10 +10884,10 @@
         <v>5</v>
       </c>
       <c r="G313" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H313" s="1" t="s">
-        <v>763</v>
+        <v>770</v>
       </c>
     </row>
     <row r="314" spans="1:8" x14ac:dyDescent="0.25">
@@ -10910,10 +10910,10 @@
         <v>2</v>
       </c>
       <c r="G314" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H314" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="315" spans="1:8" x14ac:dyDescent="0.25">
@@ -10936,10 +10936,10 @@
         <v>4</v>
       </c>
       <c r="G315" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H315" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="316" spans="1:8" x14ac:dyDescent="0.25">
@@ -10962,10 +10962,10 @@
         <v>1</v>
       </c>
       <c r="G316" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H316" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="317" spans="1:8" x14ac:dyDescent="0.25">
@@ -10988,10 +10988,10 @@
         <v>3</v>
       </c>
       <c r="G317" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H317" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="318" spans="1:8" x14ac:dyDescent="0.25">
@@ -11014,10 +11014,10 @@
         <v>6</v>
       </c>
       <c r="G318" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H318" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="319" spans="1:8" x14ac:dyDescent="0.25">
@@ -11040,10 +11040,10 @@
         <v>5</v>
       </c>
       <c r="G319" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H319" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="320" spans="1:8" x14ac:dyDescent="0.25">
@@ -11066,10 +11066,10 @@
         <v>2</v>
       </c>
       <c r="G320" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H320" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="321" spans="1:8" x14ac:dyDescent="0.25">
@@ -11092,10 +11092,10 @@
         <v>4</v>
       </c>
       <c r="G321" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H321" s="1" t="s">
-        <v>763</v>
+        <v>770</v>
       </c>
     </row>
     <row r="322" spans="1:8" x14ac:dyDescent="0.25">
@@ -11118,10 +11118,10 @@
         <v>1</v>
       </c>
       <c r="G322" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H322" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="323" spans="1:8" x14ac:dyDescent="0.25">
@@ -11144,10 +11144,10 @@
         <v>3</v>
       </c>
       <c r="G323" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H323" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="324" spans="1:8" x14ac:dyDescent="0.25">
@@ -11170,10 +11170,10 @@
         <v>6</v>
       </c>
       <c r="G324" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H324" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="325" spans="1:8" x14ac:dyDescent="0.25">
@@ -11196,10 +11196,10 @@
         <v>5</v>
       </c>
       <c r="G325" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H325" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="326" spans="1:8" x14ac:dyDescent="0.25">
@@ -11222,10 +11222,10 @@
         <v>2</v>
       </c>
       <c r="G326" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H326" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="327" spans="1:8" x14ac:dyDescent="0.25">
@@ -11248,10 +11248,10 @@
         <v>4</v>
       </c>
       <c r="G327" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H327" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="328" spans="1:8" x14ac:dyDescent="0.25">
@@ -11274,10 +11274,10 @@
         <v>1</v>
       </c>
       <c r="G328" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H328" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="329" spans="1:8" x14ac:dyDescent="0.25">
@@ -11300,10 +11300,10 @@
         <v>3</v>
       </c>
       <c r="G329" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H329" s="1" t="s">
-        <v>763</v>
+        <v>770</v>
       </c>
     </row>
     <row r="330" spans="1:8" x14ac:dyDescent="0.25">
@@ -11326,10 +11326,10 @@
         <v>6</v>
       </c>
       <c r="G330" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H330" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="331" spans="1:8" x14ac:dyDescent="0.25">
@@ -11352,10 +11352,10 @@
         <v>5</v>
       </c>
       <c r="G331" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H331" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="332" spans="1:8" x14ac:dyDescent="0.25">
@@ -11378,10 +11378,10 @@
         <v>2</v>
       </c>
       <c r="G332" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H332" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="333" spans="1:8" x14ac:dyDescent="0.25">
@@ -11404,10 +11404,10 @@
         <v>4</v>
       </c>
       <c r="G333" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H333" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="334" spans="1:8" x14ac:dyDescent="0.25">
@@ -11430,10 +11430,10 @@
         <v>1</v>
       </c>
       <c r="G334" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H334" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="335" spans="1:8" x14ac:dyDescent="0.25">
@@ -11456,10 +11456,10 @@
         <v>3</v>
       </c>
       <c r="G335" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H335" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="336" spans="1:8" x14ac:dyDescent="0.25">
@@ -11482,10 +11482,10 @@
         <v>6</v>
       </c>
       <c r="G336" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H336" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="337" spans="1:8" x14ac:dyDescent="0.25">
@@ -11508,10 +11508,10 @@
         <v>5</v>
       </c>
       <c r="G337" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H337" s="1" t="s">
-        <v>763</v>
+        <v>770</v>
       </c>
     </row>
     <row r="338" spans="1:8" x14ac:dyDescent="0.25">
@@ -11534,10 +11534,10 @@
         <v>2</v>
       </c>
       <c r="G338" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H338" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="339" spans="1:8" x14ac:dyDescent="0.25">
@@ -11560,10 +11560,10 @@
         <v>4</v>
       </c>
       <c r="G339" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H339" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="340" spans="1:8" x14ac:dyDescent="0.25">
@@ -11586,10 +11586,10 @@
         <v>1</v>
       </c>
       <c r="G340" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H340" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="341" spans="1:8" x14ac:dyDescent="0.25">
@@ -11612,10 +11612,10 @@
         <v>3</v>
       </c>
       <c r="G341" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H341" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="342" spans="1:8" x14ac:dyDescent="0.25">
@@ -11638,10 +11638,10 @@
         <v>6</v>
       </c>
       <c r="G342" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H342" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="343" spans="1:8" x14ac:dyDescent="0.25">
@@ -11664,10 +11664,10 @@
         <v>5</v>
       </c>
       <c r="G343" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H343" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="344" spans="1:8" x14ac:dyDescent="0.25">
@@ -11690,10 +11690,10 @@
         <v>2</v>
       </c>
       <c r="G344" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H344" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="345" spans="1:8" x14ac:dyDescent="0.25">
@@ -11716,10 +11716,10 @@
         <v>4</v>
       </c>
       <c r="G345" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H345" s="1" t="s">
-        <v>763</v>
+        <v>770</v>
       </c>
     </row>
     <row r="346" spans="1:8" x14ac:dyDescent="0.25">
@@ -11742,10 +11742,10 @@
         <v>1</v>
       </c>
       <c r="G346" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H346" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="347" spans="1:8" x14ac:dyDescent="0.25">
@@ -11768,10 +11768,10 @@
         <v>3</v>
       </c>
       <c r="G347" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H347" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="348" spans="1:8" x14ac:dyDescent="0.25">
@@ -11794,10 +11794,10 @@
         <v>6</v>
       </c>
       <c r="G348" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H348" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="349" spans="1:8" x14ac:dyDescent="0.25">
@@ -11820,10 +11820,10 @@
         <v>5</v>
       </c>
       <c r="G349" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H349" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="350" spans="1:8" x14ac:dyDescent="0.25">
@@ -11846,10 +11846,10 @@
         <v>2</v>
       </c>
       <c r="G350" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H350" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="351" spans="1:8" x14ac:dyDescent="0.25">
@@ -11872,10 +11872,10 @@
         <v>4</v>
       </c>
       <c r="G351" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H351" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="352" spans="1:8" x14ac:dyDescent="0.25">
@@ -11898,10 +11898,10 @@
         <v>1</v>
       </c>
       <c r="G352" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H352" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="353" spans="1:8" x14ac:dyDescent="0.25">
@@ -11924,10 +11924,10 @@
         <v>3</v>
       </c>
       <c r="G353" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H353" s="1" t="s">
-        <v>763</v>
+        <v>770</v>
       </c>
     </row>
     <row r="354" spans="1:8" x14ac:dyDescent="0.25">
@@ -11950,10 +11950,10 @@
         <v>6</v>
       </c>
       <c r="G354" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H354" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="355" spans="1:8" x14ac:dyDescent="0.25">
@@ -11976,10 +11976,10 @@
         <v>5</v>
       </c>
       <c r="G355" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H355" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="356" spans="1:8" x14ac:dyDescent="0.25">
@@ -12002,10 +12002,10 @@
         <v>2</v>
       </c>
       <c r="G356" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H356" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="357" spans="1:8" x14ac:dyDescent="0.25">
@@ -12028,10 +12028,10 @@
         <v>4</v>
       </c>
       <c r="G357" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H357" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="358" spans="1:8" x14ac:dyDescent="0.25">
@@ -12054,10 +12054,10 @@
         <v>1</v>
       </c>
       <c r="G358" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H358" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="359" spans="1:8" x14ac:dyDescent="0.25">
@@ -12080,10 +12080,10 @@
         <v>3</v>
       </c>
       <c r="G359" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H359" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="360" spans="1:8" x14ac:dyDescent="0.25">
@@ -12106,10 +12106,10 @@
         <v>6</v>
       </c>
       <c r="G360" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H360" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="361" spans="1:8" x14ac:dyDescent="0.25">
@@ -12132,10 +12132,10 @@
         <v>5</v>
       </c>
       <c r="G361" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H361" s="1" t="s">
-        <v>763</v>
+        <v>770</v>
       </c>
     </row>
     <row r="362" spans="1:8" x14ac:dyDescent="0.25">
@@ -12158,10 +12158,10 @@
         <v>2</v>
       </c>
       <c r="G362" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H362" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="363" spans="1:8" x14ac:dyDescent="0.25">
@@ -12184,10 +12184,10 @@
         <v>4</v>
       </c>
       <c r="G363" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H363" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="364" spans="1:8" x14ac:dyDescent="0.25">
@@ -12210,10 +12210,10 @@
         <v>1</v>
       </c>
       <c r="G364" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H364" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="365" spans="1:8" x14ac:dyDescent="0.25">
@@ -12236,10 +12236,10 @@
         <v>3</v>
       </c>
       <c r="G365" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H365" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="366" spans="1:8" x14ac:dyDescent="0.25">
@@ -12262,10 +12262,10 @@
         <v>6</v>
       </c>
       <c r="G366" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H366" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="367" spans="1:8" x14ac:dyDescent="0.25">
@@ -12288,10 +12288,10 @@
         <v>5</v>
       </c>
       <c r="G367" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H367" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="368" spans="1:8" x14ac:dyDescent="0.25">
@@ -12314,10 +12314,10 @@
         <v>2</v>
       </c>
       <c r="G368" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H368" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="369" spans="1:8" x14ac:dyDescent="0.25">
@@ -12340,10 +12340,10 @@
         <v>4</v>
       </c>
       <c r="G369" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H369" s="1" t="s">
-        <v>763</v>
+        <v>770</v>
       </c>
     </row>
     <row r="370" spans="1:8" x14ac:dyDescent="0.25">
@@ -12366,10 +12366,10 @@
         <v>1</v>
       </c>
       <c r="G370" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H370" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="371" spans="1:8" x14ac:dyDescent="0.25">
@@ -12392,10 +12392,10 @@
         <v>3</v>
       </c>
       <c r="G371" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H371" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="372" spans="1:8" x14ac:dyDescent="0.25">
@@ -12418,10 +12418,10 @@
         <v>6</v>
       </c>
       <c r="G372" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H372" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="373" spans="1:8" x14ac:dyDescent="0.25">
@@ -12444,10 +12444,10 @@
         <v>5</v>
       </c>
       <c r="G373" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H373" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="374" spans="1:8" x14ac:dyDescent="0.25">
@@ -12470,10 +12470,10 @@
         <v>2</v>
       </c>
       <c r="G374" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H374" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="375" spans="1:8" x14ac:dyDescent="0.25">
@@ -12496,10 +12496,10 @@
         <v>4</v>
       </c>
       <c r="G375" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H375" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="376" spans="1:8" x14ac:dyDescent="0.25">
@@ -12522,10 +12522,10 @@
         <v>1</v>
       </c>
       <c r="G376" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H376" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="377" spans="1:8" x14ac:dyDescent="0.25">
@@ -12548,10 +12548,10 @@
         <v>3</v>
       </c>
       <c r="G377" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H377" s="1" t="s">
-        <v>763</v>
+        <v>770</v>
       </c>
     </row>
     <row r="378" spans="1:8" x14ac:dyDescent="0.25">
@@ -12574,10 +12574,10 @@
         <v>6</v>
       </c>
       <c r="G378" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H378" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="379" spans="1:8" x14ac:dyDescent="0.25">
@@ -12600,10 +12600,10 @@
         <v>5</v>
       </c>
       <c r="G379" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H379" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="380" spans="1:8" x14ac:dyDescent="0.25">
@@ -12626,10 +12626,10 @@
         <v>2</v>
       </c>
       <c r="G380" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H380" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="381" spans="1:8" x14ac:dyDescent="0.25">
@@ -12652,10 +12652,10 @@
         <v>4</v>
       </c>
       <c r="G381" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H381" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="382" spans="1:8" x14ac:dyDescent="0.25">
@@ -12678,10 +12678,10 @@
         <v>1</v>
       </c>
       <c r="G382" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H382" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="383" spans="1:8" x14ac:dyDescent="0.25">
@@ -12704,10 +12704,10 @@
         <v>3</v>
       </c>
       <c r="G383" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H383" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="384" spans="1:8" x14ac:dyDescent="0.25">
@@ -12730,10 +12730,10 @@
         <v>6</v>
       </c>
       <c r="G384" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H384" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="385" spans="1:8" x14ac:dyDescent="0.25">
@@ -12756,10 +12756,10 @@
         <v>5</v>
       </c>
       <c r="G385" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H385" s="1" t="s">
-        <v>763</v>
+        <v>770</v>
       </c>
     </row>
     <row r="386" spans="1:8" x14ac:dyDescent="0.25">
@@ -12782,10 +12782,10 @@
         <v>2</v>
       </c>
       <c r="G386" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H386" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="387" spans="1:8" x14ac:dyDescent="0.25">
@@ -12808,10 +12808,10 @@
         <v>4</v>
       </c>
       <c r="G387" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H387" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="388" spans="1:8" x14ac:dyDescent="0.25">
@@ -12834,10 +12834,10 @@
         <v>1</v>
       </c>
       <c r="G388" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H388" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="389" spans="1:8" x14ac:dyDescent="0.25">
@@ -12860,10 +12860,10 @@
         <v>3</v>
       </c>
       <c r="G389" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H389" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="390" spans="1:8" x14ac:dyDescent="0.25">
@@ -12886,10 +12886,10 @@
         <v>6</v>
       </c>
       <c r="G390" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H390" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="391" spans="1:8" x14ac:dyDescent="0.25">
@@ -12912,10 +12912,10 @@
         <v>5</v>
       </c>
       <c r="G391" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H391" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="392" spans="1:8" x14ac:dyDescent="0.25">
@@ -12938,10 +12938,10 @@
         <v>2</v>
       </c>
       <c r="G392" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H392" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="393" spans="1:8" x14ac:dyDescent="0.25">
@@ -12964,10 +12964,10 @@
         <v>4</v>
       </c>
       <c r="G393" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H393" s="1" t="s">
-        <v>763</v>
+        <v>770</v>
       </c>
     </row>
     <row r="394" spans="1:8" x14ac:dyDescent="0.25">
@@ -12990,10 +12990,10 @@
         <v>1</v>
       </c>
       <c r="G394" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H394" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="395" spans="1:8" x14ac:dyDescent="0.25">
@@ -13016,10 +13016,10 @@
         <v>3</v>
       </c>
       <c r="G395" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H395" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="396" spans="1:8" x14ac:dyDescent="0.25">
@@ -13042,10 +13042,10 @@
         <v>6</v>
       </c>
       <c r="G396" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H396" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="397" spans="1:8" x14ac:dyDescent="0.25">
@@ -13068,10 +13068,10 @@
         <v>5</v>
       </c>
       <c r="G397" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H397" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="398" spans="1:8" x14ac:dyDescent="0.25">
@@ -13094,10 +13094,10 @@
         <v>2</v>
       </c>
       <c r="G398" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H398" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="399" spans="1:8" x14ac:dyDescent="0.25">
@@ -13120,10 +13120,10 @@
         <v>4</v>
       </c>
       <c r="G399" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H399" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="400" spans="1:8" x14ac:dyDescent="0.25">
@@ -13146,10 +13146,10 @@
         <v>1</v>
       </c>
       <c r="G400" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H400" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="401" spans="1:8" x14ac:dyDescent="0.25">
@@ -13172,10 +13172,10 @@
         <v>3</v>
       </c>
       <c r="G401" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H401" s="1" t="s">
-        <v>763</v>
+        <v>770</v>
       </c>
     </row>
     <row r="402" spans="1:8" x14ac:dyDescent="0.25">
@@ -13198,10 +13198,10 @@
         <v>6</v>
       </c>
       <c r="G402" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H402" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="403" spans="1:8" x14ac:dyDescent="0.25">
@@ -13224,10 +13224,10 @@
         <v>5</v>
       </c>
       <c r="G403" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H403" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="404" spans="1:8" x14ac:dyDescent="0.25">
@@ -13250,10 +13250,10 @@
         <v>2</v>
       </c>
       <c r="G404" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H404" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="405" spans="1:8" x14ac:dyDescent="0.25">
@@ -13276,10 +13276,10 @@
         <v>4</v>
       </c>
       <c r="G405" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H405" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="406" spans="1:8" x14ac:dyDescent="0.25">
@@ -13302,10 +13302,10 @@
         <v>1</v>
       </c>
       <c r="G406" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H406" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="407" spans="1:8" x14ac:dyDescent="0.25">
@@ -13328,10 +13328,10 @@
         <v>3</v>
       </c>
       <c r="G407" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H407" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="408" spans="1:8" x14ac:dyDescent="0.25">
@@ -13354,10 +13354,10 @@
         <v>6</v>
       </c>
       <c r="G408" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H408" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="409" spans="1:8" x14ac:dyDescent="0.25">
@@ -13380,10 +13380,10 @@
         <v>5</v>
       </c>
       <c r="G409" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H409" s="1" t="s">
-        <v>763</v>
+        <v>770</v>
       </c>
     </row>
     <row r="410" spans="1:8" x14ac:dyDescent="0.25">
@@ -13406,10 +13406,10 @@
         <v>2</v>
       </c>
       <c r="G410" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H410" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="411" spans="1:8" x14ac:dyDescent="0.25">
@@ -13432,10 +13432,10 @@
         <v>4</v>
       </c>
       <c r="G411" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H411" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="412" spans="1:8" x14ac:dyDescent="0.25">
@@ -13458,10 +13458,10 @@
         <v>1</v>
       </c>
       <c r="G412" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H412" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="413" spans="1:8" x14ac:dyDescent="0.25">
@@ -13484,10 +13484,10 @@
         <v>3</v>
       </c>
       <c r="G413" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H413" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="414" spans="1:8" x14ac:dyDescent="0.25">
@@ -13510,10 +13510,10 @@
         <v>6</v>
       </c>
       <c r="G414" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H414" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="415" spans="1:8" x14ac:dyDescent="0.25">
@@ -13536,10 +13536,10 @@
         <v>5</v>
       </c>
       <c r="G415" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H415" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="416" spans="1:8" x14ac:dyDescent="0.25">
@@ -13562,10 +13562,10 @@
         <v>2</v>
       </c>
       <c r="G416" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H416" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="417" spans="1:8" x14ac:dyDescent="0.25">
@@ -13588,10 +13588,10 @@
         <v>4</v>
       </c>
       <c r="G417" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H417" s="1" t="s">
-        <v>763</v>
+        <v>770</v>
       </c>
     </row>
     <row r="418" spans="1:8" x14ac:dyDescent="0.25">
@@ -13614,10 +13614,10 @@
         <v>1</v>
       </c>
       <c r="G418" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H418" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="419" spans="1:8" x14ac:dyDescent="0.25">
@@ -13640,10 +13640,10 @@
         <v>3</v>
       </c>
       <c r="G419" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H419" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="420" spans="1:8" x14ac:dyDescent="0.25">
@@ -13666,10 +13666,10 @@
         <v>6</v>
       </c>
       <c r="G420" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H420" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="421" spans="1:8" x14ac:dyDescent="0.25">
@@ -13692,10 +13692,10 @@
         <v>5</v>
       </c>
       <c r="G421" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H421" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="422" spans="1:8" x14ac:dyDescent="0.25">
@@ -13718,10 +13718,10 @@
         <v>2</v>
       </c>
       <c r="G422" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H422" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="423" spans="1:8" x14ac:dyDescent="0.25">
@@ -13744,10 +13744,10 @@
         <v>4</v>
       </c>
       <c r="G423" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H423" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="424" spans="1:8" x14ac:dyDescent="0.25">
@@ -13770,10 +13770,10 @@
         <v>1</v>
       </c>
       <c r="G424" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H424" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="425" spans="1:8" x14ac:dyDescent="0.25">
@@ -13796,10 +13796,10 @@
         <v>3</v>
       </c>
       <c r="G425" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H425" s="1" t="s">
-        <v>763</v>
+        <v>770</v>
       </c>
     </row>
     <row r="426" spans="1:8" x14ac:dyDescent="0.25">
@@ -13822,10 +13822,10 @@
         <v>6</v>
       </c>
       <c r="G426" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H426" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="427" spans="1:8" x14ac:dyDescent="0.25">
@@ -13848,10 +13848,10 @@
         <v>5</v>
       </c>
       <c r="G427" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H427" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="428" spans="1:8" x14ac:dyDescent="0.25">
@@ -13874,10 +13874,10 @@
         <v>2</v>
       </c>
       <c r="G428" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H428" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="429" spans="1:8" x14ac:dyDescent="0.25">
@@ -13900,10 +13900,10 @@
         <v>4</v>
       </c>
       <c r="G429" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H429" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="430" spans="1:8" x14ac:dyDescent="0.25">
@@ -13926,10 +13926,10 @@
         <v>1</v>
       </c>
       <c r="G430" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H430" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="431" spans="1:8" x14ac:dyDescent="0.25">
@@ -13952,10 +13952,10 @@
         <v>3</v>
       </c>
       <c r="G431" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H431" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="432" spans="1:8" x14ac:dyDescent="0.25">
@@ -13978,10 +13978,10 @@
         <v>6</v>
       </c>
       <c r="G432" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H432" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="433" spans="1:8" x14ac:dyDescent="0.25">
@@ -14004,10 +14004,10 @@
         <v>5</v>
       </c>
       <c r="G433" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H433" s="1" t="s">
-        <v>763</v>
+        <v>770</v>
       </c>
     </row>
     <row r="434" spans="1:8" x14ac:dyDescent="0.25">
@@ -14030,10 +14030,10 @@
         <v>2</v>
       </c>
       <c r="G434" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H434" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="435" spans="1:8" x14ac:dyDescent="0.25">
@@ -14056,10 +14056,10 @@
         <v>4</v>
       </c>
       <c r="G435" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H435" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="436" spans="1:8" x14ac:dyDescent="0.25">
@@ -14082,10 +14082,10 @@
         <v>1</v>
       </c>
       <c r="G436" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H436" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="437" spans="1:8" x14ac:dyDescent="0.25">
@@ -14108,10 +14108,10 @@
         <v>3</v>
       </c>
       <c r="G437" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H437" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="438" spans="1:8" x14ac:dyDescent="0.25">
@@ -14134,10 +14134,10 @@
         <v>6</v>
       </c>
       <c r="G438" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H438" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="439" spans="1:8" x14ac:dyDescent="0.25">
@@ -14160,10 +14160,10 @@
         <v>5</v>
       </c>
       <c r="G439" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H439" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="440" spans="1:8" x14ac:dyDescent="0.25">
@@ -14186,10 +14186,10 @@
         <v>2</v>
       </c>
       <c r="G440" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H440" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="441" spans="1:8" x14ac:dyDescent="0.25">
@@ -14212,10 +14212,10 @@
         <v>4</v>
       </c>
       <c r="G441" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H441" s="1" t="s">
-        <v>763</v>
+        <v>770</v>
       </c>
     </row>
     <row r="442" spans="1:8" x14ac:dyDescent="0.25">
@@ -14238,10 +14238,10 @@
         <v>1</v>
       </c>
       <c r="G442" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H442" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="443" spans="1:8" x14ac:dyDescent="0.25">
@@ -14264,10 +14264,10 @@
         <v>3</v>
       </c>
       <c r="G443" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H443" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="444" spans="1:8" x14ac:dyDescent="0.25">
@@ -14290,10 +14290,10 @@
         <v>6</v>
       </c>
       <c r="G444" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H444" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="445" spans="1:8" x14ac:dyDescent="0.25">
@@ -14316,10 +14316,10 @@
         <v>5</v>
       </c>
       <c r="G445" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H445" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="446" spans="1:8" x14ac:dyDescent="0.25">
@@ -14342,10 +14342,10 @@
         <v>2</v>
       </c>
       <c r="G446" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H446" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="447" spans="1:8" x14ac:dyDescent="0.25">
@@ -14368,10 +14368,10 @@
         <v>4</v>
       </c>
       <c r="G447" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H447" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="448" spans="1:8" x14ac:dyDescent="0.25">
@@ -14394,10 +14394,10 @@
         <v>1</v>
       </c>
       <c r="G448" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H448" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="449" spans="1:8" x14ac:dyDescent="0.25">
@@ -14420,10 +14420,10 @@
         <v>3</v>
       </c>
       <c r="G449" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H449" s="1" t="s">
-        <v>763</v>
+        <v>770</v>
       </c>
     </row>
     <row r="450" spans="1:8" x14ac:dyDescent="0.25">
@@ -14446,10 +14446,10 @@
         <v>6</v>
       </c>
       <c r="G450" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H450" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="451" spans="1:8" x14ac:dyDescent="0.25">
@@ -14472,10 +14472,10 @@
         <v>5</v>
       </c>
       <c r="G451" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H451" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="452" spans="1:8" x14ac:dyDescent="0.25">
@@ -14498,10 +14498,10 @@
         <v>2</v>
       </c>
       <c r="G452" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H452" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="453" spans="1:8" x14ac:dyDescent="0.25">
@@ -14524,10 +14524,10 @@
         <v>4</v>
       </c>
       <c r="G453" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H453" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="454" spans="1:8" x14ac:dyDescent="0.25">
@@ -14550,10 +14550,10 @@
         <v>1</v>
       </c>
       <c r="G454" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H454" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="455" spans="1:8" x14ac:dyDescent="0.25">
@@ -14576,10 +14576,10 @@
         <v>3</v>
       </c>
       <c r="G455" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H455" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="456" spans="1:8" x14ac:dyDescent="0.25">
@@ -14602,10 +14602,10 @@
         <v>6</v>
       </c>
       <c r="G456" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H456" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="457" spans="1:8" x14ac:dyDescent="0.25">
@@ -14628,10 +14628,10 @@
         <v>5</v>
       </c>
       <c r="G457" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H457" s="1" t="s">
-        <v>763</v>
+        <v>770</v>
       </c>
     </row>
     <row r="458" spans="1:8" x14ac:dyDescent="0.25">
@@ -14654,10 +14654,10 @@
         <v>2</v>
       </c>
       <c r="G458" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H458" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="459" spans="1:8" x14ac:dyDescent="0.25">
@@ -14680,10 +14680,10 @@
         <v>4</v>
       </c>
       <c r="G459" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H459" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="460" spans="1:8" x14ac:dyDescent="0.25">
@@ -14706,10 +14706,10 @@
         <v>1</v>
       </c>
       <c r="G460" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H460" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="461" spans="1:8" x14ac:dyDescent="0.25">
@@ -14732,10 +14732,10 @@
         <v>3</v>
       </c>
       <c r="G461" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H461" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="462" spans="1:8" x14ac:dyDescent="0.25">
@@ -14758,10 +14758,10 @@
         <v>6</v>
       </c>
       <c r="G462" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H462" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="463" spans="1:8" x14ac:dyDescent="0.25">
@@ -14784,10 +14784,10 @@
         <v>5</v>
       </c>
       <c r="G463" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H463" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="464" spans="1:8" x14ac:dyDescent="0.25">
@@ -14810,10 +14810,10 @@
         <v>2</v>
       </c>
       <c r="G464" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H464" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="465" spans="1:8" x14ac:dyDescent="0.25">
@@ -14836,10 +14836,10 @@
         <v>4</v>
       </c>
       <c r="G465" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H465" s="1" t="s">
-        <v>763</v>
+        <v>770</v>
       </c>
     </row>
     <row r="466" spans="1:8" x14ac:dyDescent="0.25">
@@ -14862,10 +14862,10 @@
         <v>1</v>
       </c>
       <c r="G466" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H466" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="467" spans="1:8" x14ac:dyDescent="0.25">
@@ -14888,10 +14888,10 @@
         <v>3</v>
       </c>
       <c r="G467" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H467" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="468" spans="1:8" x14ac:dyDescent="0.25">
@@ -14914,10 +14914,10 @@
         <v>6</v>
       </c>
       <c r="G468" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H468" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="469" spans="1:8" x14ac:dyDescent="0.25">
@@ -14940,10 +14940,10 @@
         <v>5</v>
       </c>
       <c r="G469" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H469" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="470" spans="1:8" x14ac:dyDescent="0.25">
@@ -14966,10 +14966,10 @@
         <v>2</v>
       </c>
       <c r="G470" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H470" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="471" spans="1:8" x14ac:dyDescent="0.25">
@@ -14992,10 +14992,10 @@
         <v>4</v>
       </c>
       <c r="G471" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H471" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="472" spans="1:8" x14ac:dyDescent="0.25">
@@ -15018,10 +15018,10 @@
         <v>1</v>
       </c>
       <c r="G472" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H472" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="473" spans="1:8" x14ac:dyDescent="0.25">
@@ -15044,10 +15044,10 @@
         <v>3</v>
       </c>
       <c r="G473" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H473" s="1" t="s">
-        <v>763</v>
+        <v>770</v>
       </c>
     </row>
     <row r="474" spans="1:8" x14ac:dyDescent="0.25">
@@ -15070,10 +15070,10 @@
         <v>6</v>
       </c>
       <c r="G474" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H474" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="475" spans="1:8" x14ac:dyDescent="0.25">
@@ -15096,10 +15096,10 @@
         <v>5</v>
       </c>
       <c r="G475" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H475" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="476" spans="1:8" x14ac:dyDescent="0.25">
@@ -15122,10 +15122,10 @@
         <v>2</v>
       </c>
       <c r="G476" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H476" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="477" spans="1:8" x14ac:dyDescent="0.25">
@@ -15148,10 +15148,10 @@
         <v>4</v>
       </c>
       <c r="G477" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H477" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="478" spans="1:8" x14ac:dyDescent="0.25">
@@ -15174,10 +15174,10 @@
         <v>1</v>
       </c>
       <c r="G478" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H478" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="479" spans="1:8" x14ac:dyDescent="0.25">
@@ -15200,10 +15200,10 @@
         <v>3</v>
       </c>
       <c r="G479" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H479" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="480" spans="1:8" x14ac:dyDescent="0.25">
@@ -15226,10 +15226,10 @@
         <v>6</v>
       </c>
       <c r="G480" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H480" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="481" spans="1:8" x14ac:dyDescent="0.25">
@@ -15252,10 +15252,10 @@
         <v>5</v>
       </c>
       <c r="G481" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H481" s="1" t="s">
-        <v>763</v>
+        <v>770</v>
       </c>
     </row>
     <row r="482" spans="1:8" x14ac:dyDescent="0.25">
@@ -15278,10 +15278,10 @@
         <v>2</v>
       </c>
       <c r="G482" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H482" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="483" spans="1:8" x14ac:dyDescent="0.25">
@@ -15304,10 +15304,10 @@
         <v>4</v>
       </c>
       <c r="G483" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H483" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="484" spans="1:8" x14ac:dyDescent="0.25">
@@ -15330,10 +15330,10 @@
         <v>1</v>
       </c>
       <c r="G484" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H484" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="485" spans="1:8" x14ac:dyDescent="0.25">
@@ -15356,10 +15356,10 @@
         <v>3</v>
       </c>
       <c r="G485" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H485" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="486" spans="1:8" x14ac:dyDescent="0.25">
@@ -15382,10 +15382,10 @@
         <v>6</v>
       </c>
       <c r="G486" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H486" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="487" spans="1:8" x14ac:dyDescent="0.25">
@@ -15408,10 +15408,10 @@
         <v>5</v>
       </c>
       <c r="G487" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H487" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="488" spans="1:8" x14ac:dyDescent="0.25">
@@ -15434,10 +15434,10 @@
         <v>2</v>
       </c>
       <c r="G488" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H488" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="489" spans="1:8" x14ac:dyDescent="0.25">
@@ -15460,10 +15460,10 @@
         <v>4</v>
       </c>
       <c r="G489" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H489" s="1" t="s">
-        <v>763</v>
+        <v>770</v>
       </c>
     </row>
     <row r="490" spans="1:8" x14ac:dyDescent="0.25">
@@ -15486,10 +15486,10 @@
         <v>1</v>
       </c>
       <c r="G490" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H490" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="491" spans="1:8" x14ac:dyDescent="0.25">
@@ -15512,10 +15512,10 @@
         <v>3</v>
       </c>
       <c r="G491" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H491" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="492" spans="1:8" x14ac:dyDescent="0.25">
@@ -15538,10 +15538,10 @@
         <v>6</v>
       </c>
       <c r="G492" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H492" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="493" spans="1:8" x14ac:dyDescent="0.25">
@@ -15564,10 +15564,10 @@
         <v>5</v>
       </c>
       <c r="G493" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H493" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="494" spans="1:8" x14ac:dyDescent="0.25">
@@ -15590,10 +15590,10 @@
         <v>2</v>
       </c>
       <c r="G494" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H494" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="495" spans="1:8" x14ac:dyDescent="0.25">
@@ -15616,10 +15616,10 @@
         <v>4</v>
       </c>
       <c r="G495" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H495" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="496" spans="1:8" x14ac:dyDescent="0.25">
@@ -15642,10 +15642,10 @@
         <v>1</v>
       </c>
       <c r="G496" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H496" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="497" spans="1:8" x14ac:dyDescent="0.25">
@@ -15668,10 +15668,10 @@
         <v>3</v>
       </c>
       <c r="G497" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H497" s="1" t="s">
-        <v>763</v>
+        <v>770</v>
       </c>
     </row>
     <row r="498" spans="1:8" x14ac:dyDescent="0.25">
@@ -15694,10 +15694,10 @@
         <v>6</v>
       </c>
       <c r="G498" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H498" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="499" spans="1:8" x14ac:dyDescent="0.25">
@@ -15720,10 +15720,10 @@
         <v>5</v>
       </c>
       <c r="G499" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H499" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="500" spans="1:8" x14ac:dyDescent="0.25">
@@ -15746,10 +15746,10 @@
         <v>2</v>
       </c>
       <c r="G500" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H500" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="501" spans="1:8" x14ac:dyDescent="0.25">
@@ -15772,10 +15772,10 @@
         <v>4</v>
       </c>
       <c r="G501" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H501" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="502" spans="1:8" x14ac:dyDescent="0.25">
@@ -15798,10 +15798,10 @@
         <v>1</v>
       </c>
       <c r="G502" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H502" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="503" spans="1:8" x14ac:dyDescent="0.25">
@@ -15824,10 +15824,10 @@
         <v>3</v>
       </c>
       <c r="G503" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H503" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="504" spans="1:8" x14ac:dyDescent="0.25">
@@ -15850,10 +15850,10 @@
         <v>6</v>
       </c>
       <c r="G504" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H504" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="505" spans="1:8" x14ac:dyDescent="0.25">
@@ -15876,10 +15876,10 @@
         <v>5</v>
       </c>
       <c r="G505" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H505" s="1" t="s">
-        <v>763</v>
+        <v>770</v>
       </c>
     </row>
     <row r="506" spans="1:8" x14ac:dyDescent="0.25">
@@ -15902,10 +15902,10 @@
         <v>2</v>
       </c>
       <c r="G506" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H506" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="507" spans="1:8" x14ac:dyDescent="0.25">
@@ -15928,10 +15928,10 @@
         <v>4</v>
       </c>
       <c r="G507" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H507" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="508" spans="1:8" x14ac:dyDescent="0.25">
@@ -15954,10 +15954,10 @@
         <v>1</v>
       </c>
       <c r="G508" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H508" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="509" spans="1:8" x14ac:dyDescent="0.25">
@@ -15980,10 +15980,10 @@
         <v>3</v>
       </c>
       <c r="G509" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H509" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="510" spans="1:8" x14ac:dyDescent="0.25">
@@ -16006,10 +16006,10 @@
         <v>6</v>
       </c>
       <c r="G510" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H510" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="511" spans="1:8" x14ac:dyDescent="0.25">
@@ -16032,10 +16032,10 @@
         <v>5</v>
       </c>
       <c r="G511" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H511" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="512" spans="1:8" x14ac:dyDescent="0.25">
@@ -16058,10 +16058,10 @@
         <v>2</v>
       </c>
       <c r="G512" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H512" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="513" spans="1:8" x14ac:dyDescent="0.25">
@@ -16084,10 +16084,10 @@
         <v>4</v>
       </c>
       <c r="G513" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H513" s="1" t="s">
-        <v>763</v>
+        <v>770</v>
       </c>
     </row>
     <row r="514" spans="1:8" x14ac:dyDescent="0.25">
@@ -16110,10 +16110,10 @@
         <v>1</v>
       </c>
       <c r="G514" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H514" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="515" spans="1:8" x14ac:dyDescent="0.25">
@@ -16136,10 +16136,10 @@
         <v>3</v>
       </c>
       <c r="G515" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H515" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="516" spans="1:8" x14ac:dyDescent="0.25">
@@ -16162,10 +16162,10 @@
         <v>6</v>
       </c>
       <c r="G516" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H516" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="517" spans="1:8" x14ac:dyDescent="0.25">
@@ -16188,10 +16188,10 @@
         <v>5</v>
       </c>
       <c r="G517" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H517" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="518" spans="1:8" x14ac:dyDescent="0.25">
@@ -16214,10 +16214,10 @@
         <v>2</v>
       </c>
       <c r="G518" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H518" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="519" spans="1:8" x14ac:dyDescent="0.25">
@@ -16240,10 +16240,10 @@
         <v>4</v>
       </c>
       <c r="G519" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H519" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="520" spans="1:8" x14ac:dyDescent="0.25">
@@ -16266,10 +16266,10 @@
         <v>1</v>
       </c>
       <c r="G520" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H520" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="521" spans="1:8" x14ac:dyDescent="0.25">
@@ -16292,10 +16292,10 @@
         <v>3</v>
       </c>
       <c r="G521" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H521" s="1" t="s">
-        <v>763</v>
+        <v>770</v>
       </c>
     </row>
     <row r="522" spans="1:8" x14ac:dyDescent="0.25">
@@ -16318,10 +16318,10 @@
         <v>6</v>
       </c>
       <c r="G522" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H522" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="523" spans="1:8" x14ac:dyDescent="0.25">
@@ -16344,10 +16344,10 @@
         <v>5</v>
       </c>
       <c r="G523" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H523" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="524" spans="1:8" x14ac:dyDescent="0.25">
@@ -16370,10 +16370,10 @@
         <v>2</v>
       </c>
       <c r="G524" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H524" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="525" spans="1:8" x14ac:dyDescent="0.25">
@@ -16396,10 +16396,10 @@
         <v>4</v>
       </c>
       <c r="G525" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H525" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="526" spans="1:8" x14ac:dyDescent="0.25">
@@ -16422,10 +16422,10 @@
         <v>1</v>
       </c>
       <c r="G526" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H526" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="527" spans="1:8" x14ac:dyDescent="0.25">
@@ -16448,10 +16448,10 @@
         <v>3</v>
       </c>
       <c r="G527" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H527" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="528" spans="1:8" x14ac:dyDescent="0.25">
@@ -16474,10 +16474,10 @@
         <v>6</v>
       </c>
       <c r="G528" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H528" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="529" spans="1:8" x14ac:dyDescent="0.25">
@@ -16500,10 +16500,10 @@
         <v>5</v>
       </c>
       <c r="G529" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H529" s="1" t="s">
-        <v>763</v>
+        <v>770</v>
       </c>
     </row>
     <row r="530" spans="1:8" x14ac:dyDescent="0.25">
@@ -16526,10 +16526,10 @@
         <v>2</v>
       </c>
       <c r="G530" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H530" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="531" spans="1:8" x14ac:dyDescent="0.25">
@@ -16552,10 +16552,10 @@
         <v>4</v>
       </c>
       <c r="G531" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H531" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="532" spans="1:8" x14ac:dyDescent="0.25">
@@ -16578,10 +16578,10 @@
         <v>1</v>
       </c>
       <c r="G532" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H532" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="533" spans="1:8" x14ac:dyDescent="0.25">
@@ -16604,10 +16604,10 @@
         <v>3</v>
       </c>
       <c r="G533" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H533" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="534" spans="1:8" x14ac:dyDescent="0.25">
@@ -16630,10 +16630,10 @@
         <v>6</v>
       </c>
       <c r="G534" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H534" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="535" spans="1:8" x14ac:dyDescent="0.25">
@@ -16656,10 +16656,10 @@
         <v>5</v>
       </c>
       <c r="G535" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H535" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="536" spans="1:8" x14ac:dyDescent="0.25">
@@ -16682,10 +16682,10 @@
         <v>2</v>
       </c>
       <c r="G536" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H536" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="537" spans="1:8" x14ac:dyDescent="0.25">
@@ -16708,10 +16708,10 @@
         <v>4</v>
       </c>
       <c r="G537" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H537" s="1" t="s">
-        <v>763</v>
+        <v>770</v>
       </c>
     </row>
     <row r="538" spans="1:8" x14ac:dyDescent="0.25">
@@ -16734,10 +16734,10 @@
         <v>1</v>
       </c>
       <c r="G538" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H538" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="539" spans="1:8" x14ac:dyDescent="0.25">
@@ -16760,10 +16760,10 @@
         <v>3</v>
       </c>
       <c r="G539" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H539" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="540" spans="1:8" x14ac:dyDescent="0.25">
@@ -16786,10 +16786,10 @@
         <v>6</v>
       </c>
       <c r="G540" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H540" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="541" spans="1:8" x14ac:dyDescent="0.25">
@@ -16812,10 +16812,10 @@
         <v>5</v>
       </c>
       <c r="G541" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H541" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="542" spans="1:8" x14ac:dyDescent="0.25">
@@ -16838,10 +16838,10 @@
         <v>2</v>
       </c>
       <c r="G542" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H542" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="543" spans="1:8" x14ac:dyDescent="0.25">
@@ -16864,10 +16864,10 @@
         <v>4</v>
       </c>
       <c r="G543" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H543" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="544" spans="1:8" x14ac:dyDescent="0.25">
@@ -16890,10 +16890,10 @@
         <v>1</v>
       </c>
       <c r="G544" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H544" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="545" spans="1:8" x14ac:dyDescent="0.25">
@@ -16916,10 +16916,10 @@
         <v>3</v>
       </c>
       <c r="G545" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H545" s="1" t="s">
-        <v>763</v>
+        <v>770</v>
       </c>
     </row>
     <row r="546" spans="1:8" x14ac:dyDescent="0.25">
@@ -16942,10 +16942,10 @@
         <v>6</v>
       </c>
       <c r="G546" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H546" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="547" spans="1:8" x14ac:dyDescent="0.25">
@@ -16968,10 +16968,10 @@
         <v>5</v>
       </c>
       <c r="G547" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H547" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="548" spans="1:8" x14ac:dyDescent="0.25">
@@ -16994,10 +16994,10 @@
         <v>2</v>
       </c>
       <c r="G548" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H548" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="549" spans="1:8" x14ac:dyDescent="0.25">
@@ -17020,10 +17020,10 @@
         <v>4</v>
       </c>
       <c r="G549" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H549" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="550" spans="1:8" x14ac:dyDescent="0.25">
@@ -17046,10 +17046,10 @@
         <v>1</v>
       </c>
       <c r="G550" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H550" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="551" spans="1:8" x14ac:dyDescent="0.25">
@@ -17072,10 +17072,10 @@
         <v>3</v>
       </c>
       <c r="G551" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H551" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="552" spans="1:8" x14ac:dyDescent="0.25">
@@ -17098,10 +17098,10 @@
         <v>6</v>
       </c>
       <c r="G552" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H552" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="553" spans="1:8" x14ac:dyDescent="0.25">
@@ -17124,10 +17124,10 @@
         <v>5</v>
       </c>
       <c r="G553" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H553" s="1" t="s">
-        <v>763</v>
+        <v>770</v>
       </c>
     </row>
     <row r="554" spans="1:8" x14ac:dyDescent="0.25">
@@ -17150,10 +17150,10 @@
         <v>2</v>
       </c>
       <c r="G554" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H554" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="555" spans="1:8" x14ac:dyDescent="0.25">
@@ -17176,10 +17176,10 @@
         <v>4</v>
       </c>
       <c r="G555" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H555" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="556" spans="1:8" x14ac:dyDescent="0.25">
@@ -17202,10 +17202,10 @@
         <v>1</v>
       </c>
       <c r="G556" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H556" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="557" spans="1:8" x14ac:dyDescent="0.25">
@@ -17228,10 +17228,10 @@
         <v>3</v>
       </c>
       <c r="G557" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H557" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="558" spans="1:8" x14ac:dyDescent="0.25">
@@ -17254,10 +17254,10 @@
         <v>6</v>
       </c>
       <c r="G558" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H558" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="559" spans="1:8" x14ac:dyDescent="0.25">
@@ -17280,10 +17280,10 @@
         <v>5</v>
       </c>
       <c r="G559" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H559" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="560" spans="1:8" x14ac:dyDescent="0.25">
@@ -17306,10 +17306,10 @@
         <v>2</v>
       </c>
       <c r="G560" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H560" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="561" spans="1:8" x14ac:dyDescent="0.25">
@@ -17332,10 +17332,10 @@
         <v>4</v>
       </c>
       <c r="G561" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H561" s="1" t="s">
-        <v>763</v>
+        <v>770</v>
       </c>
     </row>
     <row r="562" spans="1:8" x14ac:dyDescent="0.25">
@@ -17358,10 +17358,10 @@
         <v>1</v>
       </c>
       <c r="G562" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H562" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="563" spans="1:8" x14ac:dyDescent="0.25">
@@ -17384,10 +17384,10 @@
         <v>3</v>
       </c>
       <c r="G563" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H563" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="564" spans="1:8" x14ac:dyDescent="0.25">
@@ -17410,10 +17410,10 @@
         <v>6</v>
       </c>
       <c r="G564" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H564" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="565" spans="1:8" x14ac:dyDescent="0.25">
@@ -17436,10 +17436,10 @@
         <v>5</v>
       </c>
       <c r="G565" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H565" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="566" spans="1:8" x14ac:dyDescent="0.25">
@@ -17462,10 +17462,10 @@
         <v>2</v>
       </c>
       <c r="G566" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H566" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="567" spans="1:8" x14ac:dyDescent="0.25">
@@ -17488,10 +17488,10 @@
         <v>4</v>
       </c>
       <c r="G567" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H567" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="568" spans="1:8" x14ac:dyDescent="0.25">
@@ -17514,10 +17514,10 @@
         <v>1</v>
       </c>
       <c r="G568" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H568" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="569" spans="1:8" x14ac:dyDescent="0.25">
@@ -17540,10 +17540,10 @@
         <v>3</v>
       </c>
       <c r="G569" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H569" s="1" t="s">
-        <v>763</v>
+        <v>770</v>
       </c>
     </row>
     <row r="570" spans="1:8" x14ac:dyDescent="0.25">
@@ -17566,10 +17566,10 @@
         <v>6</v>
       </c>
       <c r="G570" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H570" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="571" spans="1:8" x14ac:dyDescent="0.25">
@@ -17592,10 +17592,10 @@
         <v>5</v>
       </c>
       <c r="G571" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H571" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="572" spans="1:8" x14ac:dyDescent="0.25">
@@ -17618,10 +17618,10 @@
         <v>2</v>
       </c>
       <c r="G572" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H572" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="573" spans="1:8" x14ac:dyDescent="0.25">
@@ -17644,10 +17644,10 @@
         <v>4</v>
       </c>
       <c r="G573" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H573" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="574" spans="1:8" x14ac:dyDescent="0.25">
@@ -17670,10 +17670,10 @@
         <v>1</v>
       </c>
       <c r="G574" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H574" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="575" spans="1:8" x14ac:dyDescent="0.25">
@@ -17696,10 +17696,10 @@
         <v>3</v>
       </c>
       <c r="G575" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H575" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="576" spans="1:8" x14ac:dyDescent="0.25">
@@ -17722,10 +17722,10 @@
         <v>6</v>
       </c>
       <c r="G576" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H576" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="577" spans="1:8" x14ac:dyDescent="0.25">
@@ -17748,10 +17748,10 @@
         <v>5</v>
       </c>
       <c r="G577" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H577" s="1" t="s">
-        <v>763</v>
+        <v>770</v>
       </c>
     </row>
     <row r="578" spans="1:8" x14ac:dyDescent="0.25">
@@ -17774,10 +17774,10 @@
         <v>2</v>
       </c>
       <c r="G578" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H578" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="579" spans="1:8" x14ac:dyDescent="0.25">
@@ -17800,10 +17800,10 @@
         <v>4</v>
       </c>
       <c r="G579" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H579" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="580" spans="1:8" x14ac:dyDescent="0.25">
@@ -17826,10 +17826,10 @@
         <v>1</v>
       </c>
       <c r="G580" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H580" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="581" spans="1:8" x14ac:dyDescent="0.25">
@@ -17852,10 +17852,10 @@
         <v>3</v>
       </c>
       <c r="G581" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H581" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="582" spans="1:8" x14ac:dyDescent="0.25">
@@ -17878,10 +17878,10 @@
         <v>6</v>
       </c>
       <c r="G582" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H582" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="583" spans="1:8" x14ac:dyDescent="0.25">
@@ -17904,10 +17904,10 @@
         <v>5</v>
       </c>
       <c r="G583" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H583" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="584" spans="1:8" x14ac:dyDescent="0.25">
@@ -17930,10 +17930,10 @@
         <v>2</v>
       </c>
       <c r="G584" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H584" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="585" spans="1:8" x14ac:dyDescent="0.25">
@@ -17956,10 +17956,10 @@
         <v>4</v>
       </c>
       <c r="G585" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H585" s="1" t="s">
-        <v>763</v>
+        <v>770</v>
       </c>
     </row>
     <row r="586" spans="1:8" x14ac:dyDescent="0.25">
@@ -17982,10 +17982,10 @@
         <v>1</v>
       </c>
       <c r="G586" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H586" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="587" spans="1:8" x14ac:dyDescent="0.25">
@@ -18008,10 +18008,10 @@
         <v>3</v>
       </c>
       <c r="G587" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H587" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="588" spans="1:8" x14ac:dyDescent="0.25">
@@ -18034,10 +18034,10 @@
         <v>6</v>
       </c>
       <c r="G588" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H588" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="589" spans="1:8" x14ac:dyDescent="0.25">
@@ -18060,10 +18060,10 @@
         <v>5</v>
       </c>
       <c r="G589" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H589" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="590" spans="1:8" x14ac:dyDescent="0.25">
@@ -18086,10 +18086,10 @@
         <v>2</v>
       </c>
       <c r="G590" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H590" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="591" spans="1:8" x14ac:dyDescent="0.25">
@@ -18112,10 +18112,10 @@
         <v>4</v>
       </c>
       <c r="G591" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H591" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="592" spans="1:8" x14ac:dyDescent="0.25">
@@ -18138,10 +18138,10 @@
         <v>1</v>
       </c>
       <c r="G592" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H592" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="593" spans="1:8" x14ac:dyDescent="0.25">
@@ -18164,10 +18164,10 @@
         <v>3</v>
       </c>
       <c r="G593" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H593" s="1" t="s">
-        <v>763</v>
+        <v>770</v>
       </c>
     </row>
     <row r="594" spans="1:8" x14ac:dyDescent="0.25">
@@ -18190,10 +18190,10 @@
         <v>6</v>
       </c>
       <c r="G594" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H594" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="595" spans="1:8" x14ac:dyDescent="0.25">
@@ -18216,10 +18216,10 @@
         <v>5</v>
       </c>
       <c r="G595" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H595" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="596" spans="1:8" x14ac:dyDescent="0.25">
@@ -18242,10 +18242,10 @@
         <v>2</v>
       </c>
       <c r="G596" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H596" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="597" spans="1:8" x14ac:dyDescent="0.25">
@@ -18268,10 +18268,10 @@
         <v>4</v>
       </c>
       <c r="G597" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H597" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="598" spans="1:8" x14ac:dyDescent="0.25">
@@ -18294,10 +18294,10 @@
         <v>1</v>
       </c>
       <c r="G598" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H598" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="599" spans="1:8" x14ac:dyDescent="0.25">
@@ -18320,10 +18320,10 @@
         <v>3</v>
       </c>
       <c r="G599" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H599" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="600" spans="1:8" x14ac:dyDescent="0.25">
@@ -18346,10 +18346,10 @@
         <v>6</v>
       </c>
       <c r="G600" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H600" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="601" spans="1:8" x14ac:dyDescent="0.25">
@@ -18372,10 +18372,10 @@
         <v>5</v>
       </c>
       <c r="G601" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H601" s="1" t="s">
-        <v>763</v>
+        <v>770</v>
       </c>
     </row>
     <row r="602" spans="1:8" x14ac:dyDescent="0.25">
@@ -18398,10 +18398,10 @@
         <v>2</v>
       </c>
       <c r="G602" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H602" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="603" spans="1:8" x14ac:dyDescent="0.25">
@@ -18424,10 +18424,10 @@
         <v>4</v>
       </c>
       <c r="G603" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H603" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="604" spans="1:8" x14ac:dyDescent="0.25">
@@ -18450,10 +18450,10 @@
         <v>1</v>
       </c>
       <c r="G604" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H604" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="605" spans="1:8" x14ac:dyDescent="0.25">
@@ -18476,10 +18476,10 @@
         <v>3</v>
       </c>
       <c r="G605" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H605" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="606" spans="1:8" x14ac:dyDescent="0.25">
@@ -18502,10 +18502,10 @@
         <v>6</v>
       </c>
       <c r="G606" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H606" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="607" spans="1:8" x14ac:dyDescent="0.25">
@@ -18528,10 +18528,10 @@
         <v>5</v>
       </c>
       <c r="G607" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H607" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="608" spans="1:8" x14ac:dyDescent="0.25">
@@ -18554,10 +18554,10 @@
         <v>2</v>
       </c>
       <c r="G608" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H608" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="609" spans="1:8" x14ac:dyDescent="0.25">
@@ -18580,10 +18580,10 @@
         <v>4</v>
       </c>
       <c r="G609" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H609" s="1" t="s">
-        <v>763</v>
+        <v>770</v>
       </c>
     </row>
     <row r="610" spans="1:8" x14ac:dyDescent="0.25">
@@ -18606,10 +18606,10 @@
         <v>1</v>
       </c>
       <c r="G610" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H610" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="611" spans="1:8" x14ac:dyDescent="0.25">
@@ -18632,10 +18632,10 @@
         <v>3</v>
       </c>
       <c r="G611" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H611" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="612" spans="1:8" x14ac:dyDescent="0.25">
@@ -18658,10 +18658,10 @@
         <v>6</v>
       </c>
       <c r="G612" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H612" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="613" spans="1:8" x14ac:dyDescent="0.25">
@@ -18684,10 +18684,10 @@
         <v>5</v>
       </c>
       <c r="G613" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H613" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="614" spans="1:8" x14ac:dyDescent="0.25">
@@ -18710,10 +18710,10 @@
         <v>2</v>
       </c>
       <c r="G614" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H614" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="615" spans="1:8" x14ac:dyDescent="0.25">
@@ -18736,10 +18736,10 @@
         <v>4</v>
       </c>
       <c r="G615" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H615" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="616" spans="1:8" x14ac:dyDescent="0.25">
@@ -18762,10 +18762,10 @@
         <v>1</v>
       </c>
       <c r="G616" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H616" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="617" spans="1:8" x14ac:dyDescent="0.25">
@@ -18788,10 +18788,10 @@
         <v>3</v>
       </c>
       <c r="G617" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H617" s="1" t="s">
-        <v>763</v>
+        <v>770</v>
       </c>
     </row>
     <row r="618" spans="1:8" x14ac:dyDescent="0.25">
@@ -18814,10 +18814,10 @@
         <v>6</v>
       </c>
       <c r="G618" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H618" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="619" spans="1:8" x14ac:dyDescent="0.25">
@@ -18840,10 +18840,10 @@
         <v>5</v>
       </c>
       <c r="G619" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H619" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="620" spans="1:8" x14ac:dyDescent="0.25">
@@ -18866,10 +18866,10 @@
         <v>2</v>
       </c>
       <c r="G620" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H620" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="621" spans="1:8" x14ac:dyDescent="0.25">
@@ -18892,10 +18892,10 @@
         <v>4</v>
       </c>
       <c r="G621" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H621" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="622" spans="1:8" x14ac:dyDescent="0.25">
@@ -18918,10 +18918,10 @@
         <v>1</v>
       </c>
       <c r="G622" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H622" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="623" spans="1:8" x14ac:dyDescent="0.25">
@@ -18944,10 +18944,10 @@
         <v>3</v>
       </c>
       <c r="G623" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H623" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="624" spans="1:8" x14ac:dyDescent="0.25">
@@ -18970,10 +18970,10 @@
         <v>6</v>
       </c>
       <c r="G624" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H624" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="625" spans="1:8" x14ac:dyDescent="0.25">
@@ -18996,10 +18996,10 @@
         <v>5</v>
       </c>
       <c r="G625" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H625" s="1" t="s">
-        <v>763</v>
+        <v>770</v>
       </c>
     </row>
     <row r="626" spans="1:8" x14ac:dyDescent="0.25">
@@ -19022,10 +19022,10 @@
         <v>2</v>
       </c>
       <c r="G626" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H626" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="627" spans="1:8" x14ac:dyDescent="0.25">
@@ -19048,10 +19048,10 @@
         <v>4</v>
       </c>
       <c r="G627" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H627" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="628" spans="1:8" x14ac:dyDescent="0.25">
@@ -19074,10 +19074,10 @@
         <v>1</v>
       </c>
       <c r="G628" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H628" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="629" spans="1:8" x14ac:dyDescent="0.25">
@@ -19100,10 +19100,10 @@
         <v>3</v>
       </c>
       <c r="G629" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H629" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="630" spans="1:8" x14ac:dyDescent="0.25">
@@ -19126,10 +19126,10 @@
         <v>6</v>
       </c>
       <c r="G630" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H630" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="631" spans="1:8" x14ac:dyDescent="0.25">
@@ -19152,10 +19152,10 @@
         <v>5</v>
       </c>
       <c r="G631" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H631" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
   </sheetData>
